--- a/Treeview_Compartiments_staging_sapco.xlsx
+++ b/Treeview_Compartiments_staging_sapco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_staging_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9659391-EE9C-4836-961E-6409B619E1B9}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FB5BE8-9FF1-4429-8B9A-B2D6587E5C2E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
@@ -681,9 +681,6 @@
     <t>ZISCINVBALFINALC/</t>
   </si>
   <si>
-    <t>FINANCIALS/</t>
-  </si>
-  <si>
     <t>INVENTORY/</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>ZONER/</t>
+  </si>
+  <si>
+    <t>FINANCIAL/</t>
   </si>
 </sst>
 </file>
@@ -806,6 +806,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6475,7 +6479,7 @@
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,11 +6526,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
-        <v>/SAPCO/Inbound/FINANCIALS/COSTING/</v>
+        <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(C2,J2,E2,F2,G2,H2)</f>
-        <v>/SAPCO/Archive/FINANCIALS/COSTING/</v>
+        <v>/SAPCO/Archive/FINANCIAL/COSTING/</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -6535,10 +6539,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>147</v>
@@ -6547,11 +6551,11 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A65" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
-        <v>/SAPCO/Inbound/FINANCIALS/PROFITABILITY/HISTORICAL/</v>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B65" si="1">CONCATENATE(C3,J3,E3,F3,G3,H3)</f>
-        <v>/SAPCO/Archive/FINANCIALS/PROFITABILITY/HISTORICAL/</v>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6560,13 +6564,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
         <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>220</v>
       </c>
       <c r="J3" t="s">
         <v>147</v>
@@ -6575,11 +6579,11 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/FINANCIALS/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/FINANCIALS/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -6588,10 +6592,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>212</v>
@@ -6616,10 +6620,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
         <v>147</v>
@@ -6641,10 +6645,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
         <v>147</v>
@@ -6666,10 +6670,10 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
         <v>147</v>
@@ -6691,10 +6695,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J8" t="s">
         <v>147</v>
@@ -6716,10 +6720,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
         <v>147</v>
@@ -6741,10 +6745,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J10" t="s">
         <v>147</v>
@@ -6766,10 +6770,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J11" t="s">
         <v>147</v>
@@ -6791,10 +6795,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J12" t="s">
         <v>147</v>
@@ -6816,10 +6820,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" t="s">
-        <v>229</v>
       </c>
       <c r="J13" t="s">
         <v>147</v>
@@ -6841,10 +6845,10 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
         <v>147</v>
@@ -6866,10 +6870,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J15" t="s">
         <v>147</v>
@@ -11146,7 +11150,7 @@
         <v>184</v>
       </c>
       <c r="H167" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J167" t="s">
         <v>147</v>
@@ -11177,7 +11181,7 @@
         <v>184</v>
       </c>
       <c r="H168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J168" t="s">
         <v>147</v>
@@ -11208,7 +11212,7 @@
         <v>184</v>
       </c>
       <c r="H169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J169" t="s">
         <v>147</v>
@@ -11239,7 +11243,7 @@
         <v>184</v>
       </c>
       <c r="H170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J170" t="s">
         <v>147</v>
@@ -11270,7 +11274,7 @@
         <v>184</v>
       </c>
       <c r="H171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J171" t="s">
         <v>147</v>

--- a/Treeview_Compartiments_staging_sapco.xlsx
+++ b/Treeview_Compartiments_staging_sapco.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_staging_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FB5BE8-9FF1-4429-8B9A-B2D6587E5C2E}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D204DEDD-22EB-4EF3-8B1D-9F8CB3BE6DC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
     <sheet name="31Jan23" sheetId="1" r:id="rId1"/>
     <sheet name="01Fev23" sheetId="2" r:id="rId2"/>
+    <sheet name="07Fev23" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="245">
   <si>
     <t>source</t>
   </si>
@@ -748,6 +749,30 @@
   </si>
   <si>
     <t>FINANCIAL/</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T009B</t>
+  </si>
+  <si>
+    <t>T009C</t>
+  </si>
+  <si>
+    <t>T6821</t>
+  </si>
+  <si>
+    <t>T685</t>
+  </si>
+  <si>
+    <t>CHAR/</t>
+  </si>
+  <si>
+    <t>MAT/</t>
+  </si>
+  <si>
+    <t>MID/</t>
   </si>
 </sst>
 </file>
@@ -769,12 +794,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -789,8 +820,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6478,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE973D5-587C-4C60-971E-2FF06C134E41}">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11759,4 +11792,5505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F87F32-7E85-499D-AD4B-4C745212B268}">
+  <dimension ref="A1:K194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(C2,K2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Archive/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A69" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(C3,K3,E3,F3,G3,H3)</f>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(C4,K4,E4,F4,G4,H4)</f>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/INVENTORY/BALANCE/</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE(C5,K5,E5,F5,G5,H5)</f>
+        <v>/SAPCO/Archive/INVENTORY/BALANCE/</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/INVENTORY/TRANSACTION/</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(C6,K6,E6,F6,G6,H6)</f>
+        <v>/SAPCO/Archive/INVENTORY/TRANSACTION/</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE(C7,K7,E7,F7,G7,H7)</f>
+        <v>/SAPCO/Archive/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE(C8,K8,E8,F8,G8,H8)</f>
+        <v>/SAPCO/Archive/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE(C9,K9,E9,F9,G9,H9)</f>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE(C10,K10,E10,F10,G10,H10)</f>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
+      </c>
+      <c r="B11" t="str">
+        <f>CONCATENATE(C11,K11,E11,F11,G11,H11)</f>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/INVOICELINE/</v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(C12,K12,E12,F12,G12,H12)</f>
+        <v>/SAPCO/Archive/SALE/INVOICELINE/</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/ORDERLINE/</v>
+      </c>
+      <c r="B13" t="str">
+        <f>CONCATENATE(C13,K13,E13,F13,G13,H13)</f>
+        <v>/SAPCO/Archive/SALE/ORDERLINE/</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/SHIPLINE/</v>
+      </c>
+      <c r="B14" t="str">
+        <f>CONCATENATE(C14,K14,E14,F14,G14,H14)</f>
+        <v>/SAPCO/Archive/SALE/SHIPLINE/</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="B15" t="str">
+        <f>CONCATENATE(C15,K15,E15,F15,G15,H15)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16:A19" si="1">CONCATENATE(C16,D16,E16,F16,G16,H16)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" ref="B16:B19" si="2">CONCATENATE(C16,K16,E16,F16,G16,H16)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009B</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009B</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009C</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009C</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="B20" t="str">
+        <f>CONCATENATE(C20,K20,E20,F20,G20,H20)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="B21" t="str">
+        <f>CONCATENATE(C21,K21,E21,F21,G21,H21)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="B22" t="str">
+        <f>CONCATENATE(C22,K22,E22,F22,G22,H22)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="B23" t="str">
+        <f>CONCATENATE(C23,K23,E23,F23,G23,H23)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="B24" t="str">
+        <f>CONCATENATE(C24,K24,E24,F24,G24,H24)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="B25" t="str">
+        <f>CONCATENATE(C25,K25,E25,F25,G25,H25)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="B26" t="str">
+        <f>CONCATENATE(C26,K26,E26,F26,G26,H26)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="B27" t="str">
+        <f>CONCATENATE(C27,K27,E27,F27,G27,H27)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="B28" t="str">
+        <f>CONCATENATE(C28,K28,E28,F28,G28,H28)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="B29" t="str">
+        <f>CONCATENATE(C29,K29,E29,F29,G29,H29)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="B30" t="str">
+        <f>CONCATENATE(C30,K30,E30,F30,G30,H30)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="B31" t="str">
+        <f>CONCATENATE(C31,K31,E31,F31,G31,H31)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="B32" t="str">
+        <f>CONCATENATE(C32,K32,E32,F32,G32,H32)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="B33" t="str">
+        <f>CONCATENATE(C33,K33,E33,F33,G33,H33)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="B34" t="str">
+        <f>CONCATENATE(C34,K34,E34,F34,G34,H34)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="B35" t="str">
+        <f>CONCATENATE(C35,K35,E35,F35,G35,H35)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="B36" t="str">
+        <f>CONCATENATE(C36,K36,E36,F36,G36,H36)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="B37" t="str">
+        <f>CONCATENATE(C37,K37,E37,F37,G37,H37)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="B38" t="str">
+        <f>CONCATENATE(C38,K38,E38,F38,G38,H38)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="B39" t="str">
+        <f>CONCATENATE(C39,K39,E39,F39,G39,H39)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="B40" t="str">
+        <f>CONCATENATE(C40,K40,E40,F40,G40,H40)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="B41" t="str">
+        <f>CONCATENATE(C41,K41,E41,F41,G41,H41)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="B42" t="str">
+        <f>CONCATENATE(C42,K42,E42,F42,G42,H42)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="B43" t="str">
+        <f>CONCATENATE(C43,K43,E43,F43,G43,H43)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="B44" t="str">
+        <f>CONCATENATE(C44,K44,E44,F44,G44,H44)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="B45" t="str">
+        <f>CONCATENATE(C45,K45,E45,F45,G45,H45)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="B46" t="str">
+        <f>CONCATENATE(C46,K46,E46,F46,G46,H46)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="B47" t="str">
+        <f>CONCATENATE(C47,K47,E47,F47,G47,H47)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="B48" t="str">
+        <f>CONCATENATE(C48,K48,E48,F48,G48,H48)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="B49" t="str">
+        <f>CONCATENATE(C49,K49,E49,F49,G49,H49)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="B50" t="str">
+        <f>CONCATENATE(C50,K50,E50,F50,G50,H50)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="B51" t="str">
+        <f>CONCATENATE(C51,K51,E51,F51,G51,H51)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="B52" t="str">
+        <f>CONCATENATE(C52,K52,E52,F52,G52,H52)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="B53" t="str">
+        <f>CONCATENATE(C53,K53,E53,F53,G53,H53)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="B54" t="str">
+        <f>CONCATENATE(C54,K54,E54,F54,G54,H54)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="B55" t="str">
+        <f>CONCATENATE(C55,K55,E55,F55,G55,H55)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="B56" t="str">
+        <f>CONCATENATE(C56,K56,E56,F56,G56,H56)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="B57" t="str">
+        <f>CONCATENATE(C57,K57,E57,F57,G57,H57)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="K57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="B58" t="str">
+        <f>CONCATENATE(C58,K58,E58,F58,G58,H58)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="B59" t="str">
+        <f>CONCATENATE(C59,K59,E59,F59,G59,H59)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="B60" t="str">
+        <f>CONCATENATE(C60,K60,E60,F60,G60,H60)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="B61" t="str">
+        <f>CONCATENATE(C61,K61,E61,F61,G61,H61)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="B62" t="str">
+        <f>CONCATENATE(C62,K62,E62,F62,G62,H62)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="B63" t="str">
+        <f>CONCATENATE(C63,K63,E63,F63,G63,H63)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="B64" t="str">
+        <f>CONCATENATE(C64,K64,E64,F64,G64,H64)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="B65" t="str">
+        <f>CONCATENATE(C65,K65,E65,F65,G65,H65)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="B66" t="str">
+        <f>CONCATENATE(C66,K66,E66,F66,G66,H66)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="B67" t="str">
+        <f>CONCATENATE(C67,K67,E67,F67,G67,H67)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="B68" t="str">
+        <f>CONCATENATE(C68,K68,E68,F68,G68,H68)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="B69" t="str">
+        <f>CONCATENATE(C69,K69,E69,F69,G69,H69)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" ref="A70:A137" si="3">CONCATENATE(C70,D70,E70,F70,G70,H70)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B137" si="4">CONCATENATE(C70,K70,E70,F70,G70,H70)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="str">
+        <f t="shared" ref="A71:A72" si="5">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T6821</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" ref="B71:B72" si="6">CONCATENATE(C71,K71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T6821</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T685</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T685</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
+      <c r="K78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
+      <c r="K81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="K82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s">
+        <v>102</v>
+      </c>
+      <c r="K86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
+      <c r="K88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>106</v>
+      </c>
+      <c r="K90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s">
+        <v>107</v>
+      </c>
+      <c r="K91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s">
+        <v>108</v>
+      </c>
+      <c r="K92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" t="s">
+        <v>114</v>
+      </c>
+      <c r="K98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" t="s">
+        <v>117</v>
+      </c>
+      <c r="K101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>118</v>
+      </c>
+      <c r="K102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
+      <c r="K103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>120</v>
+      </c>
+      <c r="K104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" t="s">
+        <v>121</v>
+      </c>
+      <c r="K105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" t="s">
+        <v>122</v>
+      </c>
+      <c r="K106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" t="s">
+        <v>123</v>
+      </c>
+      <c r="K107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" t="s">
+        <v>124</v>
+      </c>
+      <c r="K108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" t="s">
+        <v>125</v>
+      </c>
+      <c r="K109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s">
+        <v>127</v>
+      </c>
+      <c r="K111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="str">
+        <f>CONCATENATE(C112,D112,E112,F112,G112,H112,I112)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+      </c>
+      <c r="B112" s="2" t="str">
+        <f>CONCATENATE(C112,K112,E112,F112,G112,H112,I112)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="K112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="str">
+        <f>CONCATENATE(C113,D113,E113,F113,G113,H113,I113)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>CONCATENATE(C113,K113,E113,F113,G113,H113,I113)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="str">
+        <f>CONCATENATE(C114,D114,E114,F114,G114,H114,I114)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>CONCATENATE(C114,K114,E114,F114,G114,H114,I114)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" t="s">
+        <v>129</v>
+      </c>
+      <c r="K115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s">
+        <v>130</v>
+      </c>
+      <c r="K116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" t="s">
+        <v>131</v>
+      </c>
+      <c r="K117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" t="s">
+        <v>132</v>
+      </c>
+      <c r="K118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+      <c r="G119" t="s">
+        <v>133</v>
+      </c>
+      <c r="K119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>90</v>
+      </c>
+      <c r="G120" t="s">
+        <v>134</v>
+      </c>
+      <c r="K120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>90</v>
+      </c>
+      <c r="G121" t="s">
+        <v>135</v>
+      </c>
+      <c r="K121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>90</v>
+      </c>
+      <c r="G122" t="s">
+        <v>136</v>
+      </c>
+      <c r="K122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>90</v>
+      </c>
+      <c r="G123" t="s">
+        <v>137</v>
+      </c>
+      <c r="K123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>90</v>
+      </c>
+      <c r="G124" t="s">
+        <v>138</v>
+      </c>
+      <c r="K124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>90</v>
+      </c>
+      <c r="G125" t="s">
+        <v>139</v>
+      </c>
+      <c r="K125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" t="s">
+        <v>140</v>
+      </c>
+      <c r="K126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" t="s">
+        <v>141</v>
+      </c>
+      <c r="K127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" t="s">
+        <v>142</v>
+      </c>
+      <c r="K128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>90</v>
+      </c>
+      <c r="G129" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130" t="s">
+        <v>144</v>
+      </c>
+      <c r="K130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>90</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
+      <c r="K131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" t="s">
+        <v>91</v>
+      </c>
+      <c r="G132" t="s">
+        <v>148</v>
+      </c>
+      <c r="K132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" t="s">
+        <v>91</v>
+      </c>
+      <c r="G133" t="s">
+        <v>149</v>
+      </c>
+      <c r="K133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>91</v>
+      </c>
+      <c r="G134" t="s">
+        <v>150</v>
+      </c>
+      <c r="K134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135" t="s">
+        <v>151</v>
+      </c>
+      <c r="K135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136" t="s">
+        <v>152</v>
+      </c>
+      <c r="K136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" t="s">
+        <v>153</v>
+      </c>
+      <c r="K137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" ref="A138:A195" si="7">CONCATENATE(C138,D138,E138,F138,G138,H138)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" ref="B138:B195" si="8">CONCATENATE(C138,K138,E138,F138,G138,H138)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" t="s">
+        <v>154</v>
+      </c>
+      <c r="K138" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" t="s">
+        <v>91</v>
+      </c>
+      <c r="G139" t="s">
+        <v>155</v>
+      </c>
+      <c r="K139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" t="s">
+        <v>91</v>
+      </c>
+      <c r="G140" t="s">
+        <v>156</v>
+      </c>
+      <c r="K140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141" t="s">
+        <v>157</v>
+      </c>
+      <c r="K141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" t="s">
+        <v>158</v>
+      </c>
+      <c r="K142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" t="s">
+        <v>159</v>
+      </c>
+      <c r="K143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" t="s">
+        <v>160</v>
+      </c>
+      <c r="K144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" t="s">
+        <v>161</v>
+      </c>
+      <c r="K145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" t="s">
+        <v>162</v>
+      </c>
+      <c r="K146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" t="s">
+        <v>163</v>
+      </c>
+      <c r="K147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" t="s">
+        <v>164</v>
+      </c>
+      <c r="K148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149" t="s">
+        <v>165</v>
+      </c>
+      <c r="K149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" t="s">
+        <v>166</v>
+      </c>
+      <c r="K150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151" t="s">
+        <v>167</v>
+      </c>
+      <c r="K151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" t="s">
+        <v>92</v>
+      </c>
+      <c r="G152" t="s">
+        <v>168</v>
+      </c>
+      <c r="K152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="s">
+        <v>92</v>
+      </c>
+      <c r="G153" t="s">
+        <v>169</v>
+      </c>
+      <c r="K153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="s">
+        <v>92</v>
+      </c>
+      <c r="G154" t="s">
+        <v>170</v>
+      </c>
+      <c r="K154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
+        <v>92</v>
+      </c>
+      <c r="G155" t="s">
+        <v>171</v>
+      </c>
+      <c r="K155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="s">
+        <v>92</v>
+      </c>
+      <c r="G156" t="s">
+        <v>172</v>
+      </c>
+      <c r="K156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>92</v>
+      </c>
+      <c r="G157" t="s">
+        <v>173</v>
+      </c>
+      <c r="K157" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="s">
+        <v>92</v>
+      </c>
+      <c r="G158" t="s">
+        <v>174</v>
+      </c>
+      <c r="K158" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" t="s">
+        <v>92</v>
+      </c>
+      <c r="G159" t="s">
+        <v>175</v>
+      </c>
+      <c r="K159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" t="s">
+        <v>92</v>
+      </c>
+      <c r="G160" t="s">
+        <v>176</v>
+      </c>
+      <c r="K160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>92</v>
+      </c>
+      <c r="G161" t="s">
+        <v>177</v>
+      </c>
+      <c r="K161" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" t="s">
+        <v>92</v>
+      </c>
+      <c r="G162" t="s">
+        <v>178</v>
+      </c>
+      <c r="K162" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>92</v>
+      </c>
+      <c r="G163" t="s">
+        <v>179</v>
+      </c>
+      <c r="K163" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" t="s">
+        <v>92</v>
+      </c>
+      <c r="G164" t="s">
+        <v>180</v>
+      </c>
+      <c r="K164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" t="s">
+        <v>92</v>
+      </c>
+      <c r="G165" t="s">
+        <v>181</v>
+      </c>
+      <c r="K165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>92</v>
+      </c>
+      <c r="G166" t="s">
+        <v>182</v>
+      </c>
+      <c r="K166" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>92</v>
+      </c>
+      <c r="G167" t="s">
+        <v>128</v>
+      </c>
+      <c r="H167" t="s">
+        <v>173</v>
+      </c>
+      <c r="K167" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" t="s">
+        <v>92</v>
+      </c>
+      <c r="G168" t="s">
+        <v>128</v>
+      </c>
+      <c r="H168" t="s">
+        <v>174</v>
+      </c>
+      <c r="K168" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" t="s">
+        <v>92</v>
+      </c>
+      <c r="G169" t="s">
+        <v>128</v>
+      </c>
+      <c r="H169" t="s">
+        <v>187</v>
+      </c>
+      <c r="K169" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" t="s">
+        <v>92</v>
+      </c>
+      <c r="G170" t="s">
+        <v>128</v>
+      </c>
+      <c r="H170" t="s">
+        <v>188</v>
+      </c>
+      <c r="K170" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" t="s">
+        <v>92</v>
+      </c>
+      <c r="G171" t="s">
+        <v>128</v>
+      </c>
+      <c r="H171" t="s">
+        <v>189</v>
+      </c>
+      <c r="K171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G172" t="s">
+        <v>128</v>
+      </c>
+      <c r="H172" t="s">
+        <v>190</v>
+      </c>
+      <c r="K172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" t="s">
+        <v>92</v>
+      </c>
+      <c r="G173" t="s">
+        <v>183</v>
+      </c>
+      <c r="K173" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" t="s">
+        <v>92</v>
+      </c>
+      <c r="G174" t="s">
+        <v>184</v>
+      </c>
+      <c r="H174" t="s">
+        <v>231</v>
+      </c>
+      <c r="K174" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" t="s">
+        <v>92</v>
+      </c>
+      <c r="G175" t="s">
+        <v>184</v>
+      </c>
+      <c r="H175" t="s">
+        <v>233</v>
+      </c>
+      <c r="K175" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" t="s">
+        <v>234</v>
+      </c>
+      <c r="K176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" t="s">
+        <v>92</v>
+      </c>
+      <c r="G177" t="s">
+        <v>184</v>
+      </c>
+      <c r="H177" t="s">
+        <v>235</v>
+      </c>
+      <c r="K177" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" t="s">
+        <v>184</v>
+      </c>
+      <c r="H178" t="s">
+        <v>232</v>
+      </c>
+      <c r="K178" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" t="s">
+        <v>92</v>
+      </c>
+      <c r="G179" t="s">
+        <v>185</v>
+      </c>
+      <c r="H179" t="s">
+        <v>168</v>
+      </c>
+      <c r="K179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" t="s">
+        <v>92</v>
+      </c>
+      <c r="G180" t="s">
+        <v>185</v>
+      </c>
+      <c r="H180" t="s">
+        <v>169</v>
+      </c>
+      <c r="K180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" t="s">
+        <v>92</v>
+      </c>
+      <c r="G181" t="s">
+        <v>185</v>
+      </c>
+      <c r="H181" t="s">
+        <v>171</v>
+      </c>
+      <c r="K181" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" t="s">
+        <v>185</v>
+      </c>
+      <c r="H182" t="s">
+        <v>172</v>
+      </c>
+      <c r="K182" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" t="s">
+        <v>185</v>
+      </c>
+      <c r="H183" t="s">
+        <v>178</v>
+      </c>
+      <c r="K183" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" t="s">
+        <v>92</v>
+      </c>
+      <c r="G184" t="s">
+        <v>185</v>
+      </c>
+      <c r="H184" t="s">
+        <v>179</v>
+      </c>
+      <c r="K184" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>92</v>
+      </c>
+      <c r="G185" t="s">
+        <v>185</v>
+      </c>
+      <c r="H185" t="s">
+        <v>180</v>
+      </c>
+      <c r="K185" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" t="s">
+        <v>92</v>
+      </c>
+      <c r="G186" t="s">
+        <v>185</v>
+      </c>
+      <c r="H186" t="s">
+        <v>181</v>
+      </c>
+      <c r="K186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" t="s">
+        <v>92</v>
+      </c>
+      <c r="G187" t="s">
+        <v>185</v>
+      </c>
+      <c r="H187" t="s">
+        <v>182</v>
+      </c>
+      <c r="K187" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" t="s">
+        <v>186</v>
+      </c>
+      <c r="K188" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>92</v>
+      </c>
+      <c r="G189" t="s">
+        <v>187</v>
+      </c>
+      <c r="K189" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G190" t="s">
+        <v>188</v>
+      </c>
+      <c r="K190" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" t="s">
+        <v>92</v>
+      </c>
+      <c r="G191" t="s">
+        <v>189</v>
+      </c>
+      <c r="K191" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" t="s">
+        <v>92</v>
+      </c>
+      <c r="G192" t="s">
+        <v>190</v>
+      </c>
+      <c r="K192" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" t="s">
+        <v>92</v>
+      </c>
+      <c r="G193" t="s">
+        <v>191</v>
+      </c>
+      <c r="K193" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="K194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Treeview_Compartiments_staging_sapco.xlsx
+++ b/Treeview_Compartiments_staging_sapco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_staging_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D204DEDD-22EB-4EF3-8B1D-9F8CB3BE6DC7}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB654DE3-D65E-4FA4-9902-9949DE90F0F2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="247">
   <si>
     <t>source</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>MID/</t>
+  </si>
+  <si>
+    <t>SAPCND_CONDINDX/</t>
+  </si>
+  <si>
+    <t>SAPCN/</t>
   </si>
 </sst>
 </file>
@@ -11796,10 +11802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F87F32-7E85-499D-AD4B-4C745212B268}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11850,7 +11856,7 @@
         <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(C2,K2,E2,F2,G2,H2)</f>
+        <f t="shared" ref="B2:B15" si="0">CONCATENATE(C2,K2,E2,F2,G2,H2)</f>
         <v>/SAPCO/Archive/FINANCIAL/COSTING/</v>
       </c>
       <c r="C2" t="s">
@@ -11871,11 +11877,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A69" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <f t="shared" ref="A3:A69" si="1">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE(C3,K3,E3,F3,G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
       </c>
       <c r="C3" t="s">
@@ -11899,11 +11905,11 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
+      </c>
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
-      </c>
-      <c r="B4" t="str">
-        <f>CONCATENATE(C4,K4,E4,F4,G4,H4)</f>
         <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
       </c>
       <c r="C4" t="s">
@@ -11927,11 +11933,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/INVENTORY/BALANCE/</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/INVENTORY/BALANCE/</v>
-      </c>
-      <c r="B5" t="str">
-        <f>CONCATENATE(C5,K5,E5,F5,G5,H5)</f>
         <v>/SAPCO/Archive/INVENTORY/BALANCE/</v>
       </c>
       <c r="C5" t="s">
@@ -11952,11 +11958,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/INVENTORY/TRANSACTION/</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/INVENTORY/TRANSACTION/</v>
-      </c>
-      <c r="B6" t="str">
-        <f>CONCATENATE(C6,K6,E6,F6,G6,H6)</f>
         <v>/SAPCO/Archive/INVENTORY/TRANSACTION/</v>
       </c>
       <c r="C6" t="s">
@@ -11977,11 +11983,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
-      </c>
-      <c r="B7" t="str">
-        <f>CONCATENATE(C7,K7,E7,F7,G7,H7)</f>
         <v>/SAPCO/Archive/MANUFACTURING/OVERVIEW/</v>
       </c>
       <c r="C7" t="s">
@@ -12002,11 +12008,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
-      </c>
-      <c r="B8" t="str">
-        <f>CONCATENATE(C8,K8,E8,F8,G8,H8)</f>
         <v>/SAPCO/Archive/MANUFACTURING/PROCESSQUALITY/</v>
       </c>
       <c r="C8" t="s">
@@ -12027,11 +12033,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
-      </c>
-      <c r="B9" t="str">
-        <f>CONCATENATE(C9,K9,E9,F9,G9,H9)</f>
         <v>/SAPCO/Archive/PROCUREMENTANDSPEND/INVOICELINE/</v>
       </c>
       <c r="C9" t="s">
@@ -12052,11 +12058,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
-      </c>
-      <c r="B10" t="str">
-        <f>CONCATENATE(C10,K10,E10,F10,G10,H10)</f>
         <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
       </c>
       <c r="C10" t="s">
@@ -12077,11 +12083,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
+      </c>
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
-      </c>
-      <c r="B11" t="str">
-        <f>CONCATENATE(C11,K11,E11,F11,G11,H11)</f>
         <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
       </c>
       <c r="C11" t="s">
@@ -12102,11 +12108,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/INVOICELINE/</v>
+      </c>
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/SALE/INVOICELINE/</v>
-      </c>
-      <c r="B12" t="str">
-        <f>CONCATENATE(C12,K12,E12,F12,G12,H12)</f>
         <v>/SAPCO/Archive/SALE/INVOICELINE/</v>
       </c>
       <c r="C12" t="s">
@@ -12127,11 +12133,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/ORDERLINE/</v>
+      </c>
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/SALE/ORDERLINE/</v>
-      </c>
-      <c r="B13" t="str">
-        <f>CONCATENATE(C13,K13,E13,F13,G13,H13)</f>
         <v>/SAPCO/Archive/SALE/ORDERLINE/</v>
       </c>
       <c r="C13" t="s">
@@ -12152,11 +12158,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/SHIPLINE/</v>
+      </c>
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/SALE/SHIPLINE/</v>
-      </c>
-      <c r="B14" t="str">
-        <f>CONCATENATE(C14,K14,E14,F14,G14,H14)</f>
         <v>/SAPCO/Archive/SALE/SHIPLINE/</v>
       </c>
       <c r="C14" t="s">
@@ -12177,11 +12183,11 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
-      </c>
-      <c r="B15" t="str">
-        <f>CONCATENATE(C15,K15,E15,F15,G15,H15)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
       </c>
       <c r="C15" t="s">
@@ -12205,11 +12211,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16:A19" si="1">CONCATENATE(C16,D16,E16,F16,G16,H16)</f>
+        <f t="shared" ref="A16:A19" si="2">CONCATENATE(C16,D16,E16,F16,G16,H16)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" ref="B16:B19" si="2">CONCATENATE(C16,K16,E16,F16,G16,H16)</f>
+        <f t="shared" ref="B16:B19" si="3">CONCATENATE(C16,K16,E16,F16,G16,H16)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -12233,11 +12239,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -12261,11 +12267,11 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009B</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009B</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -12289,11 +12295,11 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009C</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009C</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -12317,11 +12323,11 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE(C20,K20,E20,F20,G20,H20)</f>
+        <f t="shared" ref="B20:B51" si="4">CONCATENATE(C20,K20,E20,F20,G20,H20)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
       </c>
       <c r="C20" t="s">
@@ -12345,11 +12351,11 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE(C21,K21,E21,F21,G21,H21)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
       </c>
       <c r="C21" t="s">
@@ -12373,11 +12379,11 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
       </c>
       <c r="B22" t="str">
-        <f>CONCATENATE(C22,K22,E22,F22,G22,H22)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
       </c>
       <c r="C22" t="s">
@@ -12401,11 +12407,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE(C23,K23,E23,F23,G23,H23)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
       </c>
       <c r="C23" t="s">
@@ -12429,11 +12435,11 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
       </c>
       <c r="B24" t="str">
-        <f>CONCATENATE(C24,K24,E24,F24,G24,H24)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
       </c>
       <c r="C24" t="s">
@@ -12457,11 +12463,11 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE(C25,K25,E25,F25,G25,H25)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
       </c>
       <c r="C25" t="s">
@@ -12485,11 +12491,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
       </c>
       <c r="B26" t="str">
-        <f>CONCATENATE(C26,K26,E26,F26,G26,H26)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
       </c>
       <c r="C26" t="s">
@@ -12513,11 +12519,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
       </c>
       <c r="B27" t="str">
-        <f>CONCATENATE(C27,K27,E27,F27,G27,H27)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
       </c>
       <c r="C27" t="s">
@@ -12541,11 +12547,11 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
       </c>
       <c r="B28" t="str">
-        <f>CONCATENATE(C28,K28,E28,F28,G28,H28)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
       </c>
       <c r="C28" t="s">
@@ -12569,11 +12575,11 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
       </c>
       <c r="B29" t="str">
-        <f>CONCATENATE(C29,K29,E29,F29,G29,H29)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
       </c>
       <c r="C29" t="s">
@@ -12597,11 +12603,11 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
       </c>
       <c r="B30" t="str">
-        <f>CONCATENATE(C30,K30,E30,F30,G30,H30)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
       </c>
       <c r="C30" t="s">
@@ -12625,11 +12631,11 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
       </c>
       <c r="B31" t="str">
-        <f>CONCATENATE(C31,K31,E31,F31,G31,H31)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
       </c>
       <c r="C31" t="s">
@@ -12653,11 +12659,11 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
       </c>
       <c r="B32" t="str">
-        <f>CONCATENATE(C32,K32,E32,F32,G32,H32)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
       </c>
       <c r="C32" t="s">
@@ -12681,11 +12687,11 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
       </c>
       <c r="B33" t="str">
-        <f>CONCATENATE(C33,K33,E33,F33,G33,H33)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
       </c>
       <c r="C33" t="s">
@@ -12709,11 +12715,11 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
       </c>
       <c r="B34" t="str">
-        <f>CONCATENATE(C34,K34,E34,F34,G34,H34)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
       </c>
       <c r="C34" t="s">
@@ -12737,11 +12743,11 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE(C35,K35,E35,F35,G35,H35)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
       </c>
       <c r="C35" t="s">
@@ -12765,11 +12771,11 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
       </c>
       <c r="B36" t="str">
-        <f>CONCATENATE(C36,K36,E36,F36,G36,H36)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
       </c>
       <c r="C36" t="s">
@@ -12793,11 +12799,11 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE(C37,K37,E37,F37,G37,H37)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
       </c>
       <c r="C37" t="s">
@@ -12821,11 +12827,11 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
       </c>
       <c r="B38" t="str">
-        <f>CONCATENATE(C38,K38,E38,F38,G38,H38)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
       </c>
       <c r="C38" t="s">
@@ -12849,11 +12855,11 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
       </c>
       <c r="B39" t="str">
-        <f>CONCATENATE(C39,K39,E39,F39,G39,H39)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
       </c>
       <c r="C39" t="s">
@@ -12877,11 +12883,11 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
       </c>
       <c r="B40" t="str">
-        <f>CONCATENATE(C40,K40,E40,F40,G40,H40)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
       </c>
       <c r="C40" t="s">
@@ -12905,11 +12911,11 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
       </c>
       <c r="B41" t="str">
-        <f>CONCATENATE(C41,K41,E41,F41,G41,H41)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
       </c>
       <c r="C41" t="s">
@@ -12933,11 +12939,11 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
       </c>
       <c r="B42" t="str">
-        <f>CONCATENATE(C42,K42,E42,F42,G42,H42)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
       </c>
       <c r="C42" t="s">
@@ -12961,11 +12967,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
       </c>
       <c r="B43" t="str">
-        <f>CONCATENATE(C43,K43,E43,F43,G43,H43)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
       </c>
       <c r="C43" t="s">
@@ -12989,11 +12995,11 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
       </c>
       <c r="B44" t="str">
-        <f>CONCATENATE(C44,K44,E44,F44,G44,H44)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
       </c>
       <c r="C44" t="s">
@@ -13017,11 +13023,11 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
       </c>
       <c r="B45" t="str">
-        <f>CONCATENATE(C45,K45,E45,F45,G45,H45)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
       </c>
       <c r="C45" t="s">
@@ -13045,11 +13051,11 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
       </c>
       <c r="B46" t="str">
-        <f>CONCATENATE(C46,K46,E46,F46,G46,H46)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
       </c>
       <c r="C46" t="s">
@@ -13073,11 +13079,11 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
       </c>
       <c r="B47" t="str">
-        <f>CONCATENATE(C47,K47,E47,F47,G47,H47)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
       </c>
       <c r="C47" t="s">
@@ -13101,11 +13107,11 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
       </c>
       <c r="B48" t="str">
-        <f>CONCATENATE(C48,K48,E48,F48,G48,H48)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
       </c>
       <c r="C48" t="s">
@@ -13129,11 +13135,11 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
       </c>
       <c r="B49" t="str">
-        <f>CONCATENATE(C49,K49,E49,F49,G49,H49)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
       </c>
       <c r="C49" t="s">
@@ -13157,11 +13163,11 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
       </c>
       <c r="B50" t="str">
-        <f>CONCATENATE(C50,K50,E50,F50,G50,H50)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
       </c>
       <c r="C50" t="s">
@@ -13185,11 +13191,11 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
       </c>
       <c r="B51" t="str">
-        <f>CONCATENATE(C51,K51,E51,F51,G51,H51)</f>
+        <f t="shared" si="4"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
       </c>
       <c r="C51" t="s">
@@ -13213,11 +13219,11 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
       </c>
       <c r="B52" t="str">
-        <f>CONCATENATE(C52,K52,E52,F52,G52,H52)</f>
+        <f t="shared" ref="B52:B83" si="5">CONCATENATE(C52,K52,E52,F52,G52,H52)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
       </c>
       <c r="C52" t="s">
@@ -13241,11 +13247,11 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
       </c>
       <c r="B53" t="str">
-        <f>CONCATENATE(C53,K53,E53,F53,G53,H53)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
       </c>
       <c r="C53" t="s">
@@ -13269,11 +13275,11 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
       </c>
       <c r="B54" t="str">
-        <f>CONCATENATE(C54,K54,E54,F54,G54,H54)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
       </c>
       <c r="C54" t="s">
@@ -13297,11 +13303,11 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
       </c>
       <c r="B55" t="str">
-        <f>CONCATENATE(C55,K55,E55,F55,G55,H55)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
       </c>
       <c r="C55" t="s">
@@ -13325,11 +13331,11 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
       </c>
       <c r="B56" t="str">
-        <f>CONCATENATE(C56,K56,E56,F56,G56,H56)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
       </c>
       <c r="C56" t="s">
@@ -13353,11 +13359,11 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
       </c>
       <c r="B57" t="str">
-        <f>CONCATENATE(C57,K57,E57,F57,G57,H57)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
       </c>
       <c r="C57" t="s">
@@ -13381,11 +13387,11 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
       </c>
       <c r="B58" t="str">
-        <f>CONCATENATE(C58,K58,E58,F58,G58,H58)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
       </c>
       <c r="C58" t="s">
@@ -13409,11 +13415,11 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
       </c>
       <c r="B59" t="str">
-        <f>CONCATENATE(C59,K59,E59,F59,G59,H59)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
       </c>
       <c r="C59" t="s">
@@ -13437,11 +13443,11 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
       </c>
       <c r="B60" t="str">
-        <f>CONCATENATE(C60,K60,E60,F60,G60,H60)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
       </c>
       <c r="C60" t="s">
@@ -13465,11 +13471,11 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
       </c>
       <c r="B61" t="str">
-        <f>CONCATENATE(C61,K61,E61,F61,G61,H61)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
       </c>
       <c r="C61" t="s">
@@ -13493,11 +13499,11 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
       </c>
       <c r="B62" t="str">
-        <f>CONCATENATE(C62,K62,E62,F62,G62,H62)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
       </c>
       <c r="C62" t="s">
@@ -13521,11 +13527,11 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
       </c>
       <c r="B63" t="str">
-        <f>CONCATENATE(C63,K63,E63,F63,G63,H63)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
       </c>
       <c r="C63" t="s">
@@ -13549,11 +13555,11 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
       </c>
       <c r="B64" t="str">
-        <f>CONCATENATE(C64,K64,E64,F64,G64,H64)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
       </c>
       <c r="C64" t="s">
@@ -13577,11 +13583,11 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
       </c>
       <c r="B65" t="str">
-        <f>CONCATENATE(C65,K65,E65,F65,G65,H65)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
       </c>
       <c r="C65" t="s">
@@ -13605,11 +13611,11 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
       </c>
       <c r="B66" t="str">
-        <f>CONCATENATE(C66,K66,E66,F66,G66,H66)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
       </c>
       <c r="C66" t="s">
@@ -13633,11 +13639,11 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
       </c>
       <c r="B67" t="str">
-        <f>CONCATENATE(C67,K67,E67,F67,G67,H67)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
       </c>
       <c r="C67" t="s">
@@ -13661,11 +13667,11 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
       </c>
       <c r="B68" t="str">
-        <f>CONCATENATE(C68,K68,E68,F68,G68,H68)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
       </c>
       <c r="C68" t="s">
@@ -13689,11 +13695,11 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="B69" t="str">
-        <f>CONCATENATE(C69,K69,E69,F69,G69,H69)</f>
+        <f t="shared" si="5"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="C69" t="s">
@@ -13717,11 +13723,11 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" ref="A70:A137" si="3">CONCATENATE(C70,D70,E70,F70,G70,H70)</f>
+        <f t="shared" ref="A70:A137" si="6">CONCATENATE(C70,D70,E70,F70,G70,H70)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B137" si="4">CONCATENATE(C70,K70,E70,F70,G70,H70)</f>
+        <f t="shared" ref="B70:B137" si="7">CONCATENATE(C70,K70,E70,F70,G70,H70)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="C70" t="s">
@@ -13745,11 +13751,11 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
-        <f t="shared" ref="A71:A72" si="5">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
+        <f t="shared" ref="A71:A72" si="8">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T6821</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" ref="B71:B72" si="6">CONCATENATE(C71,K71,E71,F71,G71,H71)</f>
+        <f t="shared" ref="B71:B72" si="9">CONCATENATE(C71,K71,E71,F71,G71,H71)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T6821</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -13773,11 +13779,11 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T685</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T685</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -13801,11 +13807,11 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="C73" t="s">
@@ -13829,11 +13835,11 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="C74" t="s">
@@ -13857,11 +13863,11 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="C75" t="s">
@@ -13885,11 +13891,11 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="C76" t="s">
@@ -13913,11 +13919,11 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="C77" t="s">
@@ -13941,11 +13947,11 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="C78" t="s">
@@ -13969,11 +13975,11 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="C79" t="s">
@@ -13997,11 +14003,11 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="C80" t="s">
@@ -14025,11 +14031,11 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="C81" t="s">
@@ -14053,11 +14059,11 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="C82" t="s">
@@ -14081,11 +14087,11 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="C83" t="s">
@@ -14109,11 +14115,11 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="C84" t="s">
@@ -14137,11 +14143,11 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="C85" t="s">
@@ -14165,11 +14171,11 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="C86" t="s">
@@ -14193,11 +14199,11 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="C87" t="s">
@@ -14221,11 +14227,11 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="C88" t="s">
@@ -14249,11 +14255,11 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="C89" t="s">
@@ -14277,11 +14283,11 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="C90" t="s">
@@ -14305,11 +14311,11 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="C91" t="s">
@@ -14333,11 +14339,11 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="C92" t="s">
@@ -14361,11 +14367,11 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="C93" t="s">
@@ -14389,11 +14395,11 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="C94" t="s">
@@ -14417,11 +14423,11 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="C95" t="s">
@@ -14445,11 +14451,11 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="C96" t="s">
@@ -14473,11 +14479,11 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="C97" t="s">
@@ -14501,11 +14507,11 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="C98" t="s">
@@ -14529,11 +14535,11 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="C99" t="s">
@@ -14557,11 +14563,11 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="C100" t="s">
@@ -14585,11 +14591,11 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="C101" t="s">
@@ -14613,11 +14619,11 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="C102" t="s">
@@ -14641,11 +14647,11 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="C103" t="s">
@@ -14669,11 +14675,11 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="C104" t="s">
@@ -14697,11 +14703,11 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="C105" t="s">
@@ -14725,11 +14731,11 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="C106" t="s">
@@ -14753,11 +14759,11 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="C107" t="s">
@@ -14781,11 +14787,11 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="C108" t="s">
@@ -14809,11 +14815,11 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="C109" t="s">
@@ -14837,11 +14843,11 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="C110" t="s">
@@ -14865,11 +14871,11 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="C111" t="s">
@@ -14991,11 +14997,11 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="C115" t="s">
@@ -15019,11 +15025,11 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="C116" t="s">
@@ -15047,11 +15053,11 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="C117" t="s">
@@ -15075,11 +15081,11 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="C118" t="s">
@@ -15103,11 +15109,11 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="C119" t="s">
@@ -15131,11 +15137,11 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="C120" t="s">
@@ -15159,11 +15165,11 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="C121" t="s">
@@ -15187,11 +15193,11 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="C122" t="s">
@@ -15215,11 +15221,11 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="C123" t="s">
@@ -15243,11 +15249,11 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="C124" t="s">
@@ -15271,11 +15277,11 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="C125" t="s">
@@ -15299,11 +15305,11 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="C126" t="s">
@@ -15327,11 +15333,11 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="C127" t="s">
@@ -15355,11 +15361,11 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="C128" t="s">
@@ -15383,11 +15389,11 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="C129" t="s">
@@ -15411,11 +15417,11 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="C130" t="s">
@@ -15439,11 +15445,11 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="C131" t="s">
@@ -15467,11 +15473,11 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="C132" t="s">
@@ -15495,11 +15501,11 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="C133" t="s">
@@ -15523,11 +15529,11 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="C134" t="s">
@@ -15551,11 +15557,11 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="C135" t="s">
@@ -15579,11 +15585,11 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="C136" t="s">
@@ -15607,11 +15613,11 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C137" t="s">
@@ -15635,11 +15641,11 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" ref="A138:A195" si="7">CONCATENATE(C138,D138,E138,F138,G138,H138)</f>
+        <f t="shared" ref="A138:A196" si="10">CONCATENATE(C138,D138,E138,F138,G138,H138)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" ref="B138:B195" si="8">CONCATENATE(C138,K138,E138,F138,G138,H138)</f>
+        <f t="shared" ref="B138:B196" si="11">CONCATENATE(C138,K138,E138,F138,G138,H138)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="C138" t="s">
@@ -15663,11 +15669,11 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="C139" t="s">
@@ -15691,11 +15697,11 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="C140" t="s">
@@ -15719,11 +15725,11 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="C141" t="s">
@@ -15747,11 +15753,11 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="C142" t="s">
@@ -15775,11 +15781,11 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="C143" t="s">
@@ -15803,11 +15809,11 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="C144" t="s">
@@ -15831,11 +15837,11 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="C145" t="s">
@@ -15859,11 +15865,11 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="C146" t="s">
@@ -15887,11 +15893,11 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="C147" t="s">
@@ -15915,11 +15921,11 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="C148" t="s">
@@ -15943,11 +15949,11 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="C149" t="s">
@@ -15971,11 +15977,11 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="C150" t="s">
@@ -15999,11 +16005,11 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="C151" t="s">
@@ -16027,11 +16033,11 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
       </c>
       <c r="C152" t="s">
@@ -16055,11 +16061,11 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="C153" t="s">
@@ -16083,11 +16089,11 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="C154" t="s">
@@ -16111,11 +16117,11 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="C155" t="s">
@@ -16139,11 +16145,11 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="C156" t="s">
@@ -16167,11 +16173,11 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="C157" t="s">
@@ -16195,11 +16201,11 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="C158" t="s">
@@ -16223,11 +16229,11 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="C159" t="s">
@@ -16251,11 +16257,11 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="C160" t="s">
@@ -16279,11 +16285,11 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="C161" t="s">
@@ -16307,11 +16313,11 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="C162" t="s">
@@ -16335,11 +16341,11 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="C163" t="s">
@@ -16363,11 +16369,11 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="C164" t="s">
@@ -16391,11 +16397,11 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="C165" t="s">
@@ -16419,11 +16425,11 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="C166" t="s">
@@ -16447,11 +16453,11 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="C167" t="s">
@@ -16478,11 +16484,11 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="C168" t="s">
@@ -16509,11 +16515,11 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="C169" t="s">
@@ -16540,11 +16546,11 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="C170" t="s">
@@ -16571,11 +16577,11 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="C171" t="s">
@@ -16602,11 +16608,11 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="C172" t="s">
@@ -16633,12 +16639,12 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCN/</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCN/</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -16653,7 +16659,7 @@
         <v>92</v>
       </c>
       <c r="G173" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="K173" t="s">
         <v>147</v>
@@ -16661,12 +16667,12 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+        <f t="shared" ref="A174" si="12">CONCATENATE(C174,D174,E174,F174,G174,H174)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+        <f t="shared" ref="B174" si="13">CONCATENATE(C174,K174,E174,F174,G174,H174)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -16681,10 +16687,10 @@
         <v>92</v>
       </c>
       <c r="G174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H174" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="K174" t="s">
         <v>147</v>
@@ -16692,12 +16698,12 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+        <f t="shared" ref="A175" si="14">CONCATENATE(C175,D175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/SAPCND_CONDINDX/</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+        <f t="shared" ref="B175" si="15">CONCATENATE(C175,K175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/SAPCND_CONDINDX/</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -16712,10 +16718,10 @@
         <v>92</v>
       </c>
       <c r="G175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="K175" t="s">
         <v>147</v>
@@ -16723,12 +16729,12 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -16746,7 +16752,7 @@
         <v>184</v>
       </c>
       <c r="H176" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K176" t="s">
         <v>147</v>
@@ -16754,12 +16760,12 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -16777,7 +16783,7 @@
         <v>184</v>
       </c>
       <c r="H177" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K177" t="s">
         <v>147</v>
@@ -16785,12 +16791,12 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -16808,7 +16814,7 @@
         <v>184</v>
       </c>
       <c r="H178" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K178" t="s">
         <v>147</v>
@@ -16816,12 +16822,12 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -16836,10 +16842,10 @@
         <v>92</v>
       </c>
       <c r="G179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H179" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="K179" t="s">
         <v>147</v>
@@ -16847,12 +16853,12 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -16867,10 +16873,10 @@
         <v>92</v>
       </c>
       <c r="G180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H180" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="K180" t="s">
         <v>147</v>
@@ -16878,12 +16884,12 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -16901,7 +16907,7 @@
         <v>185</v>
       </c>
       <c r="H181" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K181" t="s">
         <v>147</v>
@@ -16909,12 +16915,12 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -16932,7 +16938,7 @@
         <v>185</v>
       </c>
       <c r="H182" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K182" t="s">
         <v>147</v>
@@ -16940,12 +16946,12 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -16963,7 +16969,7 @@
         <v>185</v>
       </c>
       <c r="H183" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K183" t="s">
         <v>147</v>
@@ -16971,12 +16977,12 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -16994,7 +17000,7 @@
         <v>185</v>
       </c>
       <c r="H184" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K184" t="s">
         <v>147</v>
@@ -17002,12 +17008,12 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -17025,7 +17031,7 @@
         <v>185</v>
       </c>
       <c r="H185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K185" t="s">
         <v>147</v>
@@ -17033,12 +17039,12 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -17056,7 +17062,7 @@
         <v>185</v>
       </c>
       <c r="H186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K186" t="s">
         <v>147</v>
@@ -17064,12 +17070,12 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -17087,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="H187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K187" t="s">
         <v>147</v>
@@ -17095,12 +17101,12 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -17115,7 +17121,10 @@
         <v>92</v>
       </c>
       <c r="G188" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="H188" t="s">
+        <v>181</v>
       </c>
       <c r="K188" t="s">
         <v>147</v>
@@ -17123,12 +17132,12 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -17143,7 +17152,10 @@
         <v>92</v>
       </c>
       <c r="G189" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="H189" t="s">
+        <v>182</v>
       </c>
       <c r="K189" t="s">
         <v>147</v>
@@ -17151,12 +17163,12 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -17171,7 +17183,7 @@
         <v>92</v>
       </c>
       <c r="G190" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K190" t="s">
         <v>147</v>
@@ -17179,12 +17191,12 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -17199,7 +17211,7 @@
         <v>92</v>
       </c>
       <c r="G191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K191" t="s">
         <v>147</v>
@@ -17207,12 +17219,12 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -17227,7 +17239,7 @@
         <v>92</v>
       </c>
       <c r="G192" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K192" t="s">
         <v>147</v>
@@ -17235,12 +17247,12 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -17255,7 +17267,7 @@
         <v>92</v>
       </c>
       <c r="G193" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K193" t="s">
         <v>147</v>
@@ -17263,29 +17275,85 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" t="s">
+        <v>92</v>
+      </c>
+      <c r="G194" t="s">
+        <v>190</v>
+      </c>
+      <c r="K194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" t="s">
+        <v>92</v>
+      </c>
+      <c r="G195" t="s">
+        <v>191</v>
+      </c>
+      <c r="K195" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="B194" t="str">
-        <f t="shared" si="8"/>
+      <c r="B196" t="str">
+        <f t="shared" si="11"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="C194" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" t="s">
-        <v>4</v>
-      </c>
-      <c r="E194" t="s">
-        <v>28</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" t="s">
         <v>93</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G196" t="s">
         <v>31</v>
       </c>
-      <c r="K194" t="s">
+      <c r="K196" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Treeview_Compartiments_staging_sapco.xlsx
+++ b/Treeview_Compartiments_staging_sapco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_staging_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D9EEBC-430B-48F4-9A6E-071A62ED7489}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D84C50C-4069-4C26-AC83-D3BDFE3A6A38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
     <sheet name="31Jan23" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="07Fev23" sheetId="3" r:id="rId3"/>
     <sheet name="08Mar23" sheetId="4" r:id="rId4"/>
     <sheet name="13Mar23" sheetId="5" r:id="rId5"/>
+    <sheet name="24Mar23" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="263">
   <si>
     <t>source</t>
   </si>
@@ -824,6 +825,12 @@
   <si>
     <t>ZONE_R/</t>
   </si>
+  <si>
+    <t>T682I/</t>
+  </si>
+  <si>
+    <t>TVST/</t>
+  </si>
 </sst>
 </file>
 
@@ -884,10 +891,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1200,7 +1206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14958,31 +14964,29 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="str">
+      <c r="A112" t="str">
         <f>CONCATENATE(C112,D112,E112,F112,G112,H112,I112)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
-      <c r="B112" s="2" t="str">
+      <c r="B112" t="str">
         <f>CONCATENATE(C112,K112,E112,F112,G112,H112,I112)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" t="s">
         <v>128</v>
       </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
       <c r="K112" t="s">
         <v>147</v>
       </c>
@@ -17445,33 +17449,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19403,27 +19407,27 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
+      <c r="A72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T682l/</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="3" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T682l/</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>251</v>
       </c>
       <c r="K72" t="s">
@@ -22990,8 +22994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E55B9-7369-4879-81B3-2DBED37A1B52}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23008,33 +23012,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -25023,11 +25027,11 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A74" si="4">CONCATENATE(C74,D74,E74,F74,G74,H74)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP_CMS/</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B74" si="5">CONCATENATE(C74,K74,E74,F74,G74,H74)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP_CMS/</v>
       </c>
       <c r="C74" t="s">
@@ -25135,11 +25139,11 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" ref="A78" si="4">CONCATENATE(C78,D78,E78,F78,G78,H78)</f>
+        <f t="shared" ref="A78" si="6">CONCATENATE(C78,D78,E78,F78,G78,H78)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUSP/</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" ref="B78" si="5">CONCATENATE(C78,K78,E78,F78,G78,H78)</f>
+        <f t="shared" ref="B78" si="7">CONCATENATE(C78,K78,E78,F78,G78,H78)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUSP/</v>
       </c>
       <c r="C78" t="s">
@@ -26127,11 +26131,11 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="str">
-        <f t="shared" ref="A113:A114" si="6">CONCATENATE(C113,D113,E113,F113,G113,H113,I113)</f>
+        <f t="shared" ref="A113:A114" si="8">CONCATENATE(C113,D113,E113,F113,G113,H113,I113)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MAT/</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" ref="B113:B114" si="7">CONCATENATE(C113,K113,E113,F113,G113,H113,I113)</f>
+        <f t="shared" ref="B113:B114" si="9">CONCATENATE(C113,K113,E113,F113,G113,H113,I113)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MAT/</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -26159,11 +26163,11 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MID/</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MID/</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -26191,11 +26195,11 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" ref="A115" si="8">CONCATENATE(C115,D115,E115,F115,G115,H115)</f>
+        <f t="shared" ref="A115" si="10">CONCATENATE(C115,D115,E115,F115,G115,H115)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SPRAS/</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" ref="B115" si="9">CONCATENATE(C115,K115,E115,F115,G115,H115)</f>
+        <f t="shared" ref="B115" si="11">CONCATENATE(C115,K115,E115,F115,G115,H115)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SPRAS/</v>
       </c>
       <c r="C115" t="s">
@@ -26275,11 +26279,11 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" ref="A118:A119" si="10">CONCATENATE(C118,D118,E118,F118,G118,H118)</f>
+        <f t="shared" ref="A118:A119" si="12">CONCATENATE(C118,D118,E118,F118,G118,H118)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STXH/</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" ref="B118:B119" si="11">CONCATENATE(C118,K118,E118,F118,G118,H118)</f>
+        <f t="shared" ref="B118:B119" si="13">CONCATENATE(C118,K118,E118,F118,G118,H118)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STXH/</v>
       </c>
       <c r="C118" t="s">
@@ -26303,11 +26307,11 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STXL/</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STXL/</v>
       </c>
       <c r="C119" t="s">
@@ -26415,11 +26419,11 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" ref="A123:A128" si="12">CONCATENATE(C123,D123,E123,F123,G123,H123)</f>
+        <f t="shared" ref="A123:A128" si="14">CONCATENATE(C123,D123,E123,F123,G123,H123)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADR2/</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" ref="B123:B128" si="13">CONCATENATE(C123,K123,E123,F123,G123,H123)</f>
+        <f t="shared" ref="B123:B128" si="15">CONCATENATE(C123,K123,E123,F123,G123,H123)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADR2/</v>
       </c>
       <c r="C123" t="s">
@@ -26443,11 +26447,11 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADR6/</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADR6/</v>
       </c>
       <c r="C124" t="s">
@@ -26471,11 +26475,11 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADRC/</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADRC/</v>
       </c>
       <c r="C125" t="s">
@@ -26499,11 +26503,11 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/BUT000/</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/BUT000/</v>
       </c>
       <c r="C126" t="s">
@@ -26527,11 +26531,11 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/BUT100/</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/BUT100/</v>
       </c>
       <c r="C127" t="s">
@@ -26555,11 +26559,11 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/DFKKBPTAXNUM/</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/DFKKBPTAXNUM/</v>
       </c>
       <c r="C128" t="s">
@@ -26695,11 +26699,11 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" ref="A133:A134" si="14">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
+        <f t="shared" ref="A133:A134" si="16">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KONM/</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B134" si="15">CONCATENATE(C133,K133,E133,F133,G133,H133)</f>
+        <f t="shared" ref="B133:B134" si="17">CONCATENATE(C133,K133,E133,F133,G133,H133)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KONM/</v>
       </c>
       <c r="C133" t="s">
@@ -26723,11 +26727,11 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KONP/</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KONP/</v>
       </c>
       <c r="C134" t="s">
@@ -26895,7 +26899,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" ref="B140:B191" si="16">CONCATENATE(C140,K140,E140,F140,G140,H140)</f>
+        <f t="shared" ref="B140:B191" si="18">CONCATENATE(C140,K140,E140,F140,G140,H140)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="C140" t="s">
@@ -26923,7 +26927,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="C141" t="s">
@@ -26951,7 +26955,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="C142" t="s">
@@ -26979,7 +26983,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="C143" t="s">
@@ -27007,7 +27011,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="C144" t="s">
@@ -27035,7 +27039,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="C145" t="s">
@@ -27063,7 +27067,7 @@
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C146" t="s">
@@ -27087,11 +27091,11 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" ref="A147:A191" si="17">CONCATENATE(C147,D147,E147,F147,G147,H147)</f>
+        <f t="shared" ref="A147:A191" si="19">CONCATENATE(C147,D147,E147,F147,G147,H147)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="C147" t="s">
@@ -27115,11 +27119,11 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="C148" t="s">
@@ -27143,11 +27147,11 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="C149" t="s">
@@ -27171,11 +27175,11 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="C150" t="s">
@@ -27199,11 +27203,11 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="C151" t="s">
@@ -27227,11 +27231,11 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="C152" t="s">
@@ -27255,11 +27259,11 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="C153" t="s">
@@ -27283,11 +27287,11 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="C154" t="s">
@@ -27311,11 +27315,11 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="C155" t="s">
@@ -27339,11 +27343,11 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="C156" t="s">
@@ -27367,11 +27371,11 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="C157" t="s">
@@ -27395,11 +27399,11 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="C158" t="s">
@@ -27423,11 +27427,11 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="C159" t="s">
@@ -27451,11 +27455,11 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="C160" t="s">
@@ -27479,11 +27483,11 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AUSP/</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AUSP/</v>
       </c>
       <c r="C161" t="s">
@@ -27507,11 +27511,11 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CABN/</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CABN/</v>
       </c>
       <c r="C162" t="s">
@@ -27535,11 +27539,11 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/KLAH/</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/KLAH/</v>
       </c>
       <c r="C163" t="s">
@@ -27563,11 +27567,11 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="C164" t="s">
@@ -27591,11 +27595,11 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="C165" t="s">
@@ -27619,11 +27623,11 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" ref="A166" si="18">CONCATENATE(C166,D166,E166,F166,G166,H166)</f>
+        <f t="shared" ref="A166" si="20">CONCATENATE(C166,D166,E166,F166,G166,H166)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" ref="B166" si="19">CONCATENATE(C166,K166,E166,F166,G166,H166)</f>
+        <f t="shared" ref="B166" si="21">CONCATENATE(C166,K166,E166,F166,G166,H166)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="C166" t="s">
@@ -27647,11 +27651,11 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="C167" t="s">
@@ -27678,11 +27682,11 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="C168" t="s">
@@ -27709,11 +27713,11 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="C169" t="s">
@@ -27740,11 +27744,11 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="C170" t="s">
@@ -27771,11 +27775,11 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="C171" t="s">
@@ -27802,11 +27806,11 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="C172" t="s">
@@ -27833,11 +27837,11 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="C173" t="s">
@@ -27864,11 +27868,11 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="C174" t="s">
@@ -27895,11 +27899,11 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="C175" t="s">
@@ -27926,11 +27930,11 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="C176" t="s">
@@ -27957,11 +27961,11 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="C177" t="s">
@@ -27988,11 +27992,11 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" ref="A178:A180" si="20">CONCATENATE(C178,D178,E178,F178,G178,H178)</f>
+        <f t="shared" ref="A178:A180" si="22">CONCATENATE(C178,D178,E178,F178,G178,H178)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE_D/</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" ref="B178:B180" si="21">CONCATENATE(C178,K178,E178,F178,G178,H178)</f>
+        <f t="shared" ref="B178:B180" si="23">CONCATENATE(C178,K178,E178,F178,G178,H178)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE_D/</v>
       </c>
       <c r="C178" t="s">
@@ -28019,11 +28023,11 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE_P/</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE_P/</v>
       </c>
       <c r="C179" t="s">
@@ -28050,11 +28054,11 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE_R/</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE_R/</v>
       </c>
       <c r="C180" t="s">
@@ -28081,11 +28085,11 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="C181" t="s">
@@ -28112,11 +28116,11 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="C182" t="s">
@@ -28143,11 +28147,11 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="C183" t="s">
@@ -28174,11 +28178,11 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="C184" t="s">
@@ -28205,11 +28209,11 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="C185" t="s">
@@ -28236,11 +28240,11 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="C186" t="s">
@@ -28267,11 +28271,11 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="C187" t="s">
@@ -28298,11 +28302,11 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="C188" t="s">
@@ -28329,11 +28333,11 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="C189" t="s">
@@ -28360,11 +28364,11 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="C190" t="s">
@@ -28391,11 +28395,11 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
       <c r="C191" t="s">
@@ -28414,6 +28418,5574 @@
         <v>31</v>
       </c>
       <c r="K191" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E2C15-84A5-40BA-B461-D6DC6086AB71}">
+  <dimension ref="A1:K196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">CONCATENATE(C2,K2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Archive/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A69" si="1">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB/</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/INVENTORY/BALANCE/</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/INVENTORY/BALANCE/</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/INVENTORY/TRANSACTION/</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/INVENTORY/TRANSACTION/</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/INVOICELINE/</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/SALE/INVOICELINE/</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/ORDERLINE/</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/SALE/ORDERLINE/</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/SALE/SHIPLINE/</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/SALE/SHIPLINE/</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009/</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009/</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009B/</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009B/</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009C/</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009C/</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="K57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B143" si="2">CONCATENATE(C66,K66,E66,F66,G66,H66)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" ref="A70:A152" si="3">CONCATENATE(C70,D70,E70,F70,G70,H70)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" ref="A71:A72" si="4">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T682I/</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" ref="B71:B72" si="5">CONCATENATE(C71,K71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T682I/</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>261</v>
+      </c>
+      <c r="K71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T685/</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T685/</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>252</v>
+      </c>
+      <c r="K72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP_CMS/</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP_CMS/</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>254</v>
+      </c>
+      <c r="K77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="K78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO_CDC_PERMIT/</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO_CDC_PERMIT/</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
+      <c r="K80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
+        <v>95</v>
+      </c>
+      <c r="K81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUSP/</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUSP/</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>101</v>
+      </c>
+      <c r="K88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>102</v>
+      </c>
+      <c r="K89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
+      <c r="K91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s">
+        <v>106</v>
+      </c>
+      <c r="K93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" t="s">
+        <v>108</v>
+      </c>
+      <c r="K95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s">
+        <v>110</v>
+      </c>
+      <c r="K97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" t="s">
+        <v>111</v>
+      </c>
+      <c r="K98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s">
+        <v>112</v>
+      </c>
+      <c r="K99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s">
+        <v>113</v>
+      </c>
+      <c r="K100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" t="s">
+        <v>114</v>
+      </c>
+      <c r="K101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>115</v>
+      </c>
+      <c r="K102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" t="s">
+        <v>116</v>
+      </c>
+      <c r="K103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>117</v>
+      </c>
+      <c r="K104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" t="s">
+        <v>118</v>
+      </c>
+      <c r="K105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
+      <c r="K106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" t="s">
+        <v>120</v>
+      </c>
+      <c r="K107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" t="s">
+        <v>121</v>
+      </c>
+      <c r="K108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" t="s">
+        <v>122</v>
+      </c>
+      <c r="K109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" t="s">
+        <v>123</v>
+      </c>
+      <c r="K110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s">
+        <v>124</v>
+      </c>
+      <c r="K111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112" t="s">
+        <v>125</v>
+      </c>
+      <c r="K112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
+      <c r="K113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114" t="s">
+        <v>127</v>
+      </c>
+      <c r="K114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="str">
+        <f>CONCATENATE(C115,D115,E115,F115,G115,H115,I115)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>CONCATENATE(C115,K115,E115,F115,G115,H115,I115)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="str">
+        <f>CONCATENATE(C116,D116,E116,F116,G116,H116,I116)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>CONCATENATE(C116,K116,E116,F116,G116,H116,I116)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="str">
+        <f t="shared" ref="A117:A118" si="6">CONCATENATE(C117,D117,E117,F117,G117,H117,I117)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MAT/</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" ref="B117:B118" si="7">CONCATENATE(C117,K117,E117,F117,G117,H117,I117)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MAT/</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="K117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MID/</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR_MID/</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="K118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" ref="A119" si="8">CONCATENATE(C119,D119,E119,F119,G119,H119)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SPRAS/</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" ref="B119" si="9">CONCATENATE(C119,K119,E119,F119,G119,H119)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SPRAS/</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" t="s">
+        <v>255</v>
+      </c>
+      <c r="K119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" t="s">
+        <v>129</v>
+      </c>
+      <c r="K120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" t="s">
+        <v>130</v>
+      </c>
+      <c r="K121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STXH/</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STXH/</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="K122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STXL/</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STXL/</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" t="s">
+        <v>82</v>
+      </c>
+      <c r="K123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="K124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>90</v>
+      </c>
+      <c r="G125" t="s">
+        <v>132</v>
+      </c>
+      <c r="K125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" t="s">
+        <v>133</v>
+      </c>
+      <c r="K126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADR2/</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADR2/</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADR6/</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADR6/</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" t="s">
+        <v>45</v>
+      </c>
+      <c r="K128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/ADRC/</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/ADRC/</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>90</v>
+      </c>
+      <c r="G129" t="s">
+        <v>46</v>
+      </c>
+      <c r="K129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/BUT000/</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/BUT000/</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130" t="s">
+        <v>53</v>
+      </c>
+      <c r="K130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/BUT100/</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/BUT100/</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>90</v>
+      </c>
+      <c r="G131" t="s">
+        <v>55</v>
+      </c>
+      <c r="K131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" t="s">
+        <v>56</v>
+      </c>
+      <c r="K132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" t="s">
+        <v>134</v>
+      </c>
+      <c r="K133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G134" t="s">
+        <v>135</v>
+      </c>
+      <c r="K134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" t="s">
+        <v>136</v>
+      </c>
+      <c r="K135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>137</v>
+      </c>
+      <c r="K136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KONM/</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KONM/</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" t="s">
+        <v>75</v>
+      </c>
+      <c r="K137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KONP/</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KONP/</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" t="s">
+        <v>90</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="K138" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" t="s">
+        <v>90</v>
+      </c>
+      <c r="G139" t="s">
+        <v>138</v>
+      </c>
+      <c r="K139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" t="s">
+        <v>90</v>
+      </c>
+      <c r="G140" t="s">
+        <v>139</v>
+      </c>
+      <c r="K140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G141" t="s">
+        <v>140</v>
+      </c>
+      <c r="K141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" t="s">
+        <v>141</v>
+      </c>
+      <c r="K142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" t="s">
+        <v>142</v>
+      </c>
+      <c r="K143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" ref="A144:A145" si="10">CONCATENATE(C144,D144,E144,F144,G144,H144)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" ref="B144:B145" si="11">CONCATENATE(C144,K144,E144,F144,G144,H144)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G144" t="s">
+        <v>143</v>
+      </c>
+      <c r="K144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" t="s">
+        <v>144</v>
+      </c>
+      <c r="K145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" ref="B146:B196" si="12">CONCATENATE(C146,K146,E146,F146,G146,H146)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" t="s">
+        <v>90</v>
+      </c>
+      <c r="G146" t="s">
+        <v>145</v>
+      </c>
+      <c r="K146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" t="s">
+        <v>148</v>
+      </c>
+      <c r="K147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" t="s">
+        <v>149</v>
+      </c>
+      <c r="K148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149" t="s">
+        <v>150</v>
+      </c>
+      <c r="K149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" t="s">
+        <v>151</v>
+      </c>
+      <c r="K150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151" t="s">
+        <v>152</v>
+      </c>
+      <c r="K151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" t="s">
+        <v>153</v>
+      </c>
+      <c r="K152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" ref="A153:A196" si="13">CONCATENATE(C153,D153,E153,F153,G153,H153)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153" t="s">
+        <v>154</v>
+      </c>
+      <c r="K153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" t="s">
+        <v>155</v>
+      </c>
+      <c r="K154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" t="s">
+        <v>156</v>
+      </c>
+      <c r="K155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" t="s">
+        <v>157</v>
+      </c>
+      <c r="K156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>91</v>
+      </c>
+      <c r="G157" t="s">
+        <v>158</v>
+      </c>
+      <c r="K157" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" t="s">
+        <v>159</v>
+      </c>
+      <c r="K158" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" t="s">
+        <v>160</v>
+      </c>
+      <c r="K159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" t="s">
+        <v>161</v>
+      </c>
+      <c r="K160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" t="s">
+        <v>162</v>
+      </c>
+      <c r="K161" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" t="s">
+        <v>91</v>
+      </c>
+      <c r="G162" t="s">
+        <v>163</v>
+      </c>
+      <c r="K162" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" t="s">
+        <v>164</v>
+      </c>
+      <c r="K163" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" t="s">
+        <v>165</v>
+      </c>
+      <c r="K164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>91</v>
+      </c>
+      <c r="G166" t="s">
+        <v>167</v>
+      </c>
+      <c r="K166" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AUSP/</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AUSP/</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>92</v>
+      </c>
+      <c r="G167" t="s">
+        <v>47</v>
+      </c>
+      <c r="K167" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CABN/</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CABN/</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" t="s">
+        <v>92</v>
+      </c>
+      <c r="G168" t="s">
+        <v>96</v>
+      </c>
+      <c r="K168" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/KLAH/</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/KLAH/</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" t="s">
+        <v>92</v>
+      </c>
+      <c r="G169" t="s">
+        <v>104</v>
+      </c>
+      <c r="K169" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" t="s">
+        <v>92</v>
+      </c>
+      <c r="G170" t="s">
+        <v>175</v>
+      </c>
+      <c r="K170" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" t="s">
+        <v>92</v>
+      </c>
+      <c r="G171" t="s">
+        <v>176</v>
+      </c>
+      <c r="K171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G172" t="s">
+        <v>177</v>
+      </c>
+      <c r="K172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" t="s">
+        <v>92</v>
+      </c>
+      <c r="G173" t="s">
+        <v>128</v>
+      </c>
+      <c r="H173" t="s">
+        <v>173</v>
+      </c>
+      <c r="K173" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" t="s">
+        <v>92</v>
+      </c>
+      <c r="G174" t="s">
+        <v>128</v>
+      </c>
+      <c r="H174" t="s">
+        <v>174</v>
+      </c>
+      <c r="K174" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" t="s">
+        <v>92</v>
+      </c>
+      <c r="G175" t="s">
+        <v>128</v>
+      </c>
+      <c r="H175" t="s">
+        <v>187</v>
+      </c>
+      <c r="K175" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" t="s">
+        <v>128</v>
+      </c>
+      <c r="H176" t="s">
+        <v>188</v>
+      </c>
+      <c r="K176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" t="s">
+        <v>92</v>
+      </c>
+      <c r="G177" t="s">
+        <v>128</v>
+      </c>
+      <c r="H177" t="s">
+        <v>189</v>
+      </c>
+      <c r="K177" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" t="s">
+        <v>128</v>
+      </c>
+      <c r="H178" t="s">
+        <v>190</v>
+      </c>
+      <c r="K178" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" t="s">
+        <v>92</v>
+      </c>
+      <c r="G179" t="s">
+        <v>183</v>
+      </c>
+      <c r="H179" t="s">
+        <v>170</v>
+      </c>
+      <c r="K179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" t="s">
+        <v>92</v>
+      </c>
+      <c r="G180" t="s">
+        <v>184</v>
+      </c>
+      <c r="H180" t="s">
+        <v>231</v>
+      </c>
+      <c r="K180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" t="s">
+        <v>92</v>
+      </c>
+      <c r="G181" t="s">
+        <v>184</v>
+      </c>
+      <c r="H181" t="s">
+        <v>233</v>
+      </c>
+      <c r="K181" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" t="s">
+        <v>184</v>
+      </c>
+      <c r="H182" t="s">
+        <v>234</v>
+      </c>
+      <c r="K182" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" t="s">
+        <v>184</v>
+      </c>
+      <c r="H183" t="s">
+        <v>235</v>
+      </c>
+      <c r="K183" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" t="s">
+        <v>92</v>
+      </c>
+      <c r="G184" t="s">
+        <v>184</v>
+      </c>
+      <c r="H184" t="s">
+        <v>232</v>
+      </c>
+      <c r="K184" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>92</v>
+      </c>
+      <c r="G185" t="s">
+        <v>185</v>
+      </c>
+      <c r="H185" t="s">
+        <v>168</v>
+      </c>
+      <c r="K185" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" t="s">
+        <v>92</v>
+      </c>
+      <c r="G186" t="s">
+        <v>185</v>
+      </c>
+      <c r="H186" t="s">
+        <v>169</v>
+      </c>
+      <c r="K186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" t="s">
+        <v>92</v>
+      </c>
+      <c r="G187" t="s">
+        <v>185</v>
+      </c>
+      <c r="H187" t="s">
+        <v>171</v>
+      </c>
+      <c r="K187" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+      <c r="H188" t="s">
+        <v>172</v>
+      </c>
+      <c r="K188" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>92</v>
+      </c>
+      <c r="G189" t="s">
+        <v>185</v>
+      </c>
+      <c r="H189" t="s">
+        <v>178</v>
+      </c>
+      <c r="K189" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G190" t="s">
+        <v>185</v>
+      </c>
+      <c r="H190" t="s">
+        <v>179</v>
+      </c>
+      <c r="K190" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" t="s">
+        <v>92</v>
+      </c>
+      <c r="G191" t="s">
+        <v>185</v>
+      </c>
+      <c r="H191" t="s">
+        <v>180</v>
+      </c>
+      <c r="K191" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" t="s">
+        <v>92</v>
+      </c>
+      <c r="G192" t="s">
+        <v>185</v>
+      </c>
+      <c r="H192" t="s">
+        <v>181</v>
+      </c>
+      <c r="K192" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" t="s">
+        <v>92</v>
+      </c>
+      <c r="G193" t="s">
+        <v>185</v>
+      </c>
+      <c r="H193" t="s">
+        <v>182</v>
+      </c>
+      <c r="K193" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A195" si="14">CONCATENATE(C194,D194,E194,F194,G194,H194)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" ref="B194:B195" si="15">CONCATENATE(C194,K194,E194,F194,G194,H194)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" t="s">
+        <v>92</v>
+      </c>
+      <c r="G194" t="s">
+        <v>186</v>
+      </c>
+      <c r="K194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST/</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST/</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" t="s">
+        <v>92</v>
+      </c>
+      <c r="G195" t="s">
+        <v>262</v>
+      </c>
+      <c r="K195" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" t="s">
+        <v>93</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196" t="s">
         <v>147</v>
       </c>
     </row>
